--- a/Decoded.xlsx
+++ b/Decoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Proyectos\HITACHI HCRA31NEWH\GIT\HCRA31NEWH-HITACHI-IRDecode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAFDD7E-2F1D-47A8-8032-C56743CCD69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C14FB5-0CCE-4371-9DB6-3771BA492A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="21600" windowHeight="11385" xr2:uid="{C9181D6D-0BD8-416A-9FEE-C9E09DCC5742}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="27675" windowHeight="14340" activeTab="1" xr2:uid="{C9181D6D-0BD8-416A-9FEE-C9E09DCC5742}"/>
   </bookViews>
   <sheets>
     <sheet name="Schematic" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>Temperature</t>
   </si>
@@ -341,6 +340,9 @@
   </si>
   <si>
     <t>C.S 8</t>
+  </si>
+  <si>
+    <t>Binary inverted</t>
   </si>
 </sst>
 </file>
@@ -737,13 +739,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D0A8D1-C15F-400F-B049-35DFA9F766D5}">
   <dimension ref="A9:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N30"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -773,6 +776,9 @@
       </c>
       <c r="K9" t="s">
         <v>43</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.CONCAT("|",A9,"|",B9,"|",C9,"|",D9,"|",E9,"|",F9,"|",G9,"|",H9,"|",I9,"|")</f>
@@ -1562,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1974DCB-E560-4082-80C9-659DE037F979}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,43 +1579,43 @@
     <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <f>VLOOKUP(C2,Power!B3:C4,2,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="str">
         <f ca="1">VLOOKUP(C3,Mode!B2:C16,2,FALSE)</f>
-        <v>010</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="str">
         <f ca="1">VLOOKUP(C4,Temperature!B2:C16,2,FALSE)</f>
-        <v>0111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>56</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>00</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>35</v>
       </c>
@@ -1649,8 +1655,11 @@
       <c r="K9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1682,8 +1691,16 @@
         <f>_xlfn.CONCAT(B10:I10)</f>
         <v>10010101</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f>_xlfn.CONCAT(I10,H10,G10,F10,E10,D10,C10,B10)</f>
+        <v>10101001</v>
+      </c>
+      <c r="M10" t="str">
+        <f>BIN2HEX(L10,2)</f>
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1715,8 +1732,16 @@
         <f t="shared" ref="K11:K29" si="0">_xlfn.CONCAT(B11:I11)</f>
         <v>10011010</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <f t="shared" ref="L11:L24" si="1">_xlfn.CONCAT(I11,H11,G11,F11,E11,D11,C11,B11)</f>
+        <v>01011001</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" ref="M11:M21" si="2">BIN2HEX(L11,2)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1755,7 @@
       </c>
       <c r="D12" t="str">
         <f>MID(D2,1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1738,8 +1763,8 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>55</v>
+      <c r="G12">
+        <v>0</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1749,10 +1774,18 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>00000?00</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>00100000</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>00000100</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1762,7 +1795,7 @@
       </c>
       <c r="C13" t="str">
         <f ca="1">MID(D3,2,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="str">
         <f ca="1">MID(D3,3,1)</f>
@@ -1773,7 +1806,7 @@
       </c>
       <c r="F13" t="str">
         <f ca="1">MID(D4,1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="str">
         <f ca="1">MID(D4,2,1)</f>
@@ -1781,7 +1814,7 @@
       </c>
       <c r="H13" t="str">
         <f ca="1">MID(D4,3,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="str">
         <f ca="1">MID(D4,4,1)</f>
@@ -1789,10 +1822,18 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>01000111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>00001101</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>10110000</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>B0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1824,8 +1865,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1857,8 +1906,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1890,8 +1947,16 @@
         <f t="shared" si="0"/>
         <v>00000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1923,8 +1988,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1956,8 +2029,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1989,8 +2070,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2022,8 +2111,16 @@
         <f t="shared" si="0"/>
         <v>00000100</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>00100000</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2152,16 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2089,11 +2194,11 @@
         <v>00000000</v>
       </c>
       <c r="L22" t="str">
-        <f ca="1">_xlfn.CONCAT(K10:K24)</f>
-        <v>100101011001101000000?0001000111000000000000000000000001000000000000000000000000000001000000000000000000FALSOFALSOFALSOFALSOFALSOVERDADEROFALSOVERDADERO00000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2102,39 +2207,43 @@
         <v>0</v>
       </c>
       <c r="C23" t="b">
-        <f t="shared" ref="C23:I23" ca="1" si="1">_xlfn.XOR(C12:C22)</f>
+        <f t="shared" ref="C23:I23" ca="1" si="3">_xlfn.XOR(C12:C22)</f>
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="E23" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="I23" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>FALSOFALSOFALSOFALSOFALSOVERDADEROFALSOVERDADERO</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>VERDADEROFALSOVERDADEROFALSOFALSOFALSOFALSOFALSO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2166,8 +2275,12 @@
         <f t="shared" si="0"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2176,7 +2289,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -2185,7 +2298,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -2194,7 +2307,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -2203,7 +2316,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -2236,7 +2349,7 @@
         <v>00010000</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
